--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1550700.556888671</v>
+        <v>-1553259.827456227</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.493767344</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>72.83196521698224</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9662774206981</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>43.29451177962358</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>110.2029851842623</v>
       </c>
       <c r="T2" t="n">
-        <v>4.832425195397093</v>
+        <v>204.1129955007334</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.9987361002815</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -753,10 +753,10 @@
         <v>135.0233064626824</v>
       </c>
       <c r="H3" t="n">
-        <v>89.82709352349997</v>
+        <v>89.82709352349998</v>
       </c>
       <c r="I3" t="n">
-        <v>9.512185486736371</v>
+        <v>9.512185486736428</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>92.75950069007511</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>89.83072347163699</v>
       </c>
       <c r="S4" t="n">
-        <v>190.11729872947</v>
+        <v>190.1172987294701</v>
       </c>
       <c r="T4" t="n">
         <v>219.6343371202345</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>250.5285691462095</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>97.98497099623675</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>62.06770645812391</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1057,22 +1057,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>77.53608687750794</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>191.8128845006356</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>129.1379555961993</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>200.4331707528099</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>74.75769145492379</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1348,10 +1348,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>168.4579403081938</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>126.9263824507417</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>109.8058856274577</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>102.1557845699811</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>94.05355358057899</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>21.63824106824964</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>136.107889163704</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428173</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699809</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>132.8121873168108</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2606,7 +2606,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>120.7871326503973</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428188</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2956,16 +2956,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833846</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>12.96996784159884</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3080,7 +3080,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206849</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.9811888265256</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417135</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3898,7 +3898,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
         <v>124.3308255261727</v>
@@ -3910,13 +3910,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1321.049098521541</v>
+        <v>866.2215162936395</v>
       </c>
       <c r="C2" t="n">
-        <v>1321.049098521541</v>
+        <v>497.2589993532279</v>
       </c>
       <c r="D2" t="n">
-        <v>1321.049098521542</v>
+        <v>138.9933007464774</v>
       </c>
       <c r="E2" t="n">
-        <v>935.260845923297</v>
+        <v>138.9933007464774</v>
       </c>
       <c r="F2" t="n">
-        <v>524.2749411336895</v>
+        <v>65.42565911316227</v>
       </c>
       <c r="G2" t="n">
-        <v>109.1574891935902</v>
+        <v>65.42565911316227</v>
       </c>
       <c r="H2" t="n">
-        <v>109.1574891935902</v>
+        <v>65.42565911316227</v>
       </c>
       <c r="I2" t="n">
-        <v>65.42565911316235</v>
+        <v>65.42565911316227</v>
       </c>
       <c r="J2" t="n">
-        <v>250.5613272725627</v>
+        <v>250.5613272725624</v>
       </c>
       <c r="K2" t="n">
-        <v>578.7702206183947</v>
+        <v>578.7702206183939</v>
       </c>
       <c r="L2" t="n">
-        <v>1022.844136887445</v>
+        <v>1022.844136887443</v>
       </c>
       <c r="M2" t="n">
-        <v>1548.631370064181</v>
+        <v>1548.63137006418</v>
       </c>
       <c r="N2" t="n">
-        <v>2087.540198746179</v>
+        <v>2087.540198746177</v>
       </c>
       <c r="O2" t="n">
-        <v>2583.081262767914</v>
+        <v>2583.081262767912</v>
       </c>
       <c r="P2" t="n">
-        <v>2971.513095303804</v>
+        <v>2971.513095303801</v>
       </c>
       <c r="Q2" t="n">
-        <v>3215.036478301001</v>
+        <v>3215.036478300998</v>
       </c>
       <c r="R2" t="n">
-        <v>3271.282955658117</v>
+        <v>3271.282955658113</v>
       </c>
       <c r="S2" t="n">
-        <v>3159.966809007347</v>
+        <v>3159.966809007343</v>
       </c>
       <c r="T2" t="n">
-        <v>3155.085571436239</v>
+        <v>2953.792066077309</v>
       </c>
       <c r="U2" t="n">
-        <v>3155.085571436239</v>
+        <v>2700.257989208338</v>
       </c>
       <c r="V2" t="n">
-        <v>2824.022684092669</v>
+        <v>2369.195101864767</v>
       </c>
       <c r="W2" t="n">
-        <v>2471.254028822555</v>
+        <v>2016.426446594653</v>
       </c>
       <c r="X2" t="n">
-        <v>2097.788270561475</v>
+        <v>1642.960688333573</v>
       </c>
       <c r="Y2" t="n">
-        <v>1707.648938585663</v>
+        <v>1252.821356357761</v>
       </c>
     </row>
     <row r="3">
@@ -4398,34 +4398,34 @@
         <v>302.1555434292419</v>
       </c>
       <c r="G3" t="n">
-        <v>165.7683651841082</v>
+        <v>165.7683651841081</v>
       </c>
       <c r="H3" t="n">
-        <v>75.03392728158293</v>
+        <v>75.0339272815829</v>
       </c>
       <c r="I3" t="n">
-        <v>65.42565911316235</v>
+        <v>65.42565911316227</v>
       </c>
       <c r="J3" t="n">
-        <v>156.8733478056106</v>
+        <v>156.8733478056103</v>
       </c>
       <c r="K3" t="n">
-        <v>391.3268380794821</v>
+        <v>419.0008575360378</v>
       </c>
       <c r="L3" t="n">
-        <v>752.9010302656277</v>
+        <v>780.5750497221829</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.197926366258</v>
+        <v>1221.871945822813</v>
       </c>
       <c r="N3" t="n">
-        <v>1661.583283102523</v>
+        <v>1689.257302559077</v>
       </c>
       <c r="O3" t="n">
-        <v>2066.929778176383</v>
+        <v>2094.603797632937</v>
       </c>
       <c r="P3" t="n">
-        <v>2400.597029664691</v>
+        <v>2400.597029664692</v>
       </c>
       <c r="Q3" t="n">
         <v>2555.226205362918</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>65.4256591131624</v>
+        <v>159.122124456672</v>
       </c>
       <c r="C4" t="n">
-        <v>65.4256591131624</v>
+        <v>159.1221244566719</v>
       </c>
       <c r="D4" t="n">
-        <v>65.42565911316235</v>
+        <v>159.1221244566719</v>
       </c>
       <c r="E4" t="n">
-        <v>65.42565911316235</v>
+        <v>159.1221244566719</v>
       </c>
       <c r="F4" t="n">
-        <v>65.42565911316235</v>
+        <v>159.1221244566719</v>
       </c>
       <c r="G4" t="n">
-        <v>65.42565911316235</v>
+        <v>159.1221244566719</v>
       </c>
       <c r="H4" t="n">
-        <v>65.42565911316235</v>
+        <v>65.42565911316227</v>
       </c>
       <c r="I4" t="n">
-        <v>65.42565911316235</v>
+        <v>65.42565911316227</v>
       </c>
       <c r="J4" t="n">
-        <v>109.1495242182616</v>
+        <v>109.1495242182614</v>
       </c>
       <c r="K4" t="n">
-        <v>310.8381027401525</v>
+        <v>310.8381027401518</v>
       </c>
       <c r="L4" t="n">
-        <v>624.4564789039126</v>
+        <v>624.4564789039117</v>
       </c>
       <c r="M4" t="n">
-        <v>965.5122071220441</v>
+        <v>965.5122071220426</v>
       </c>
       <c r="N4" t="n">
-        <v>1303.893008842036</v>
+        <v>1303.893008842035</v>
       </c>
       <c r="O4" t="n">
-        <v>1600.426152235785</v>
+        <v>1600.426152235783</v>
       </c>
       <c r="P4" t="n">
-        <v>1830.640801863762</v>
+        <v>1830.64080186376</v>
       </c>
       <c r="Q4" t="n">
-        <v>1906.594412149534</v>
+        <v>1906.594412149532</v>
       </c>
       <c r="R4" t="n">
-        <v>1906.594412149534</v>
+        <v>1815.856307632727</v>
       </c>
       <c r="S4" t="n">
-        <v>1714.556736665221</v>
+        <v>1623.818632148414</v>
       </c>
       <c r="T4" t="n">
-        <v>1492.703870887206</v>
+        <v>1401.965766370399</v>
       </c>
       <c r="U4" t="n">
-        <v>1203.599902944583</v>
+        <v>1112.861798427776</v>
       </c>
       <c r="V4" t="n">
-        <v>948.9154147386965</v>
+        <v>858.1773102218896</v>
       </c>
       <c r="W4" t="n">
-        <v>695.8562539849496</v>
+        <v>568.760140184929</v>
       </c>
       <c r="X4" t="n">
-        <v>467.8667030869322</v>
+        <v>340.7705892869117</v>
       </c>
       <c r="Y4" t="n">
-        <v>247.0741239434021</v>
+        <v>340.7705892869117</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1238.038871968309</v>
+        <v>1582.86133602681</v>
       </c>
       <c r="C5" t="n">
-        <v>1238.038871968309</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D5" t="n">
-        <v>879.773173361559</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>879.773173361559</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>468.7872685719514</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,55 +4562,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883008</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539437</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.243802269323</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2014.778044008243</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y5" t="n">
-        <v>1624.638712032431</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="6">
@@ -4620,64 +4620,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>441.1652223009119</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="C7" t="n">
-        <v>441.1652223009119</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="D7" t="n">
-        <v>291.0485828885761</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E7" t="n">
-        <v>291.0485828885761</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143257</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1615.697475415547</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1361.01298720966</v>
+        <v>941.1583359835356</v>
       </c>
       <c r="W7" t="n">
-        <v>1071.595817172699</v>
+        <v>941.1583359835356</v>
       </c>
       <c r="X7" t="n">
-        <v>843.6062662746817</v>
+        <v>713.1687850855183</v>
       </c>
       <c r="Y7" t="n">
-        <v>622.8136871311516</v>
+        <v>492.3762059419881</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1899.13013587303</v>
+        <v>1178.820931986406</v>
       </c>
       <c r="C8" t="n">
-        <v>1530.167618932618</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.901920325867</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276232</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3012.857404901105</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794324</v>
+        <v>2681.794517557534</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.03827352421</v>
+        <v>2329.02586228742</v>
       </c>
       <c r="X8" t="n">
-        <v>2029.57251526313</v>
+        <v>1955.56010402634</v>
       </c>
       <c r="Y8" t="n">
-        <v>2029.57251526313</v>
+        <v>1565.420772050528</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>797.4834000772721</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="C10" t="n">
-        <v>628.5472171493652</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="D10" t="n">
-        <v>478.4305777370295</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658018</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.425065783662</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1416.425065783662</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1246.26553011882</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>1018.275979220802</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y10" t="n">
-        <v>797.4834000772721</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="11">
@@ -5069,7 +5069,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5078,10 +5078,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5130,16 +5130,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>985.7836617409689</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C13" t="n">
-        <v>816.8474788130621</v>
+        <v>513.853600740071</v>
       </c>
       <c r="D13" t="n">
-        <v>666.7308394007264</v>
+        <v>363.7369613277351</v>
       </c>
       <c r="E13" t="n">
-        <v>518.8177458183333</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>371.9277983204229</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>204.7316990353028</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2160.315914855604</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1905.631426649717</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1616.214256612756</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1388.224705714739</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y13" t="n">
-        <v>1167.432126571209</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="14">
@@ -5270,34 +5270,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5358,25 +5358,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>372.4964262156764</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>734.646179883601</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C16" t="n">
-        <v>565.7099969556941</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D16" t="n">
-        <v>565.7099969556941</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>417.796903373301</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>270.9069558753906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5452,13 +5452,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487567</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138407</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876689</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C19" t="n">
-        <v>580.8993044876689</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D19" t="n">
-        <v>430.7826650753332</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E19" t="n">
-        <v>282.8695714929401</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5671,13 +5671,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5692,31 +5692,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614388</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179087</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="20">
@@ -5744,34 +5744,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111707</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>590.9096564684977</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M21" t="n">
-        <v>1188.28814409505</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>695.5020655703105</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C22" t="n">
-        <v>558.0193492433381</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D22" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,37 +5908,37 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
         <v>1688.385853854706</v>
@@ -5947,13 +5947,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="23">
@@ -5966,40 +5966,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,28 +6008,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,25 +6066,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>590.9096564684977</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898187001</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1366.593344833982</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1138.603793935964</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y25" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,22 +6221,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N27" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C28" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D28" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797189</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797189</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270445</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797189</v>
@@ -6388,7 +6388,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6397,22 +6397,22 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
         <v>1688.385853854706</v>
@@ -6427,7 +6427,7 @@
         <v>916.2946447138413</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,22 +6476,22 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M30" t="n">
-        <v>1176.533952578166</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1804.131916132773</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C31" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998289</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038336</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797738</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150028</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6874,10 +6874,10 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
@@ -6889,16 +6889,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,13 +6923,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
@@ -6941,46 +6941,46 @@
         <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J36" t="n">
-        <v>120.680066384834</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K36" t="n">
-        <v>454.6048385560546</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="L36" t="n">
-        <v>949.9304447718133</v>
+        <v>740.5562989961528</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1337.934786622705</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1965.532750177312</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,58 +7069,58 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384018</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656415</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7129,13 +7129,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,22 +7245,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="L39" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345478</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O40" t="n">
         <v>2179.340199382518</v>
@@ -7351,16 +7351,16 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838286</v>
@@ -7391,10 +7391,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7406,31 +7406,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>738.7889117913855</v>
       </c>
       <c r="M42" t="n">
-        <v>1176.533952578166</v>
+        <v>738.7889117913855</v>
       </c>
       <c r="N42" t="n">
-        <v>1804.131916132773</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2356.04164637206</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7582,19 +7582,19 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7637,13 +7637,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M45" t="n">
-        <v>1140.291933891999</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1767.889897446606</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7828,25 +7828,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>27.95355500662248</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>27.95355500661873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.622913276780253</v>
+        <v>1.622913276780366</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>334.0440805247292</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9662774206981</v>
       </c>
       <c r="H2" t="n">
         <v>295.0640301736143</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>43.29451177962374</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,10 +22598,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>199.2805703053363</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.9987361002815</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22720,10 +22720,10 @@
         <v>166.0457926480648</v>
       </c>
       <c r="H4" t="n">
-        <v>144.9326943004822</v>
+        <v>52.17319361040722</v>
       </c>
       <c r="I4" t="n">
-        <v>96.95340549104682</v>
+        <v>96.95340549104687</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>89.8307234716369</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22765,13 +22765,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>35.99442919038154</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>19.50758019582744</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>30.48882721876618</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823122</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>71.47058471169227</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>123.7828069546816</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>65.54986409393055</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>31.13893193492379</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194213</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>46.45968844823144</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>153.7108110197802</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>46.45968844823054</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194198</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24844,16 +24844,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>46.45968844823068</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>205.6146855104959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1282234.885881982</v>
+        <v>1282234.885881981</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1282234.885881982</v>
+        <v>1282234.885881981</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1282234.885881982</v>
+        <v>1282234.885881981</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1282234.885881982</v>
+        <v>1282234.885881981</v>
       </c>
     </row>
     <row r="12">
@@ -26323,7 +26323,7 @@
         <v>141250.6549457511</v>
       </c>
       <c r="F2" t="n">
-        <v>141250.6549457511</v>
+        <v>141250.654945751</v>
       </c>
       <c r="G2" t="n">
         <v>141250.6549457511</v>
@@ -26344,16 +26344,16 @@
         <v>143682.3097262496</v>
       </c>
       <c r="M2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="N2" t="n">
         <v>143682.3097262497</v>
       </c>
       <c r="O2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="P2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1313514.533081207</v>
+        <v>1313514.533081206</v>
       </c>
       <c r="C3" t="n">
-        <v>14479.05232074563</v>
+        <v>14479.0523207465</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>213977.8894125531</v>
+        <v>213977.8894125528</v>
       </c>
       <c r="K3" t="n">
-        <v>3495.241841022668</v>
+        <v>3495.241841022931</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363174</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12350.05787405597</v>
+        <v>12350.05787405605</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815708</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680579</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.9762168058</v>
       </c>
       <c r="H4" t="n">
         <v>11776.97621680582</v>
@@ -26439,22 +26439,22 @@
         <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
+        <v>11776.9762168058</v>
+      </c>
+      <c r="K4" t="n">
         <v>11776.97621680582</v>
       </c>
-      <c r="K4" t="n">
-        <v>11776.97621680587</v>
-      </c>
       <c r="L4" t="n">
-        <v>19767.83547989927</v>
+        <v>19767.83547989928</v>
       </c>
       <c r="M4" t="n">
-        <v>19767.8354798993</v>
+        <v>19767.83547989919</v>
       </c>
       <c r="N4" t="n">
-        <v>19767.83547989928</v>
+        <v>19767.83547989919</v>
       </c>
       <c r="O4" t="n">
-        <v>19767.8354798993</v>
+        <v>19767.83547989929</v>
       </c>
       <c r="P4" t="n">
         <v>19767.8354798993</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>106866.6399031116</v>
+        <v>106866.6399031115</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1314254.73223235</v>
+        <v>-1314614.815248066</v>
       </c>
       <c r="C6" t="n">
-        <v>-69694.69414404636</v>
+        <v>-69694.69414404726</v>
       </c>
       <c r="D6" t="n">
-        <v>-55215.64182330082</v>
+        <v>-55215.6418233008</v>
       </c>
       <c r="E6" t="n">
-        <v>-297061.3129023171</v>
+        <v>-297096.0508277527</v>
       </c>
       <c r="F6" t="n">
-        <v>28351.14890503824</v>
+        <v>28316.41097960241</v>
       </c>
       <c r="G6" t="n">
-        <v>28351.14890503816</v>
+        <v>28316.41097960249</v>
       </c>
       <c r="H6" t="n">
-        <v>28351.14890503816</v>
+        <v>28316.41097960244</v>
       </c>
       <c r="I6" t="n">
-        <v>28351.14890503814</v>
+        <v>28316.41097960247</v>
       </c>
       <c r="J6" t="n">
-        <v>-185626.740507515</v>
+        <v>-185661.4784329504</v>
       </c>
       <c r="K6" t="n">
-        <v>24855.90706401542</v>
+        <v>24821.16913857953</v>
       </c>
       <c r="L6" t="n">
-        <v>1322.640398803196</v>
+        <v>1322.640398803211</v>
       </c>
       <c r="M6" t="n">
-        <v>-64304.6695430769</v>
+        <v>-64304.66954307693</v>
       </c>
       <c r="N6" t="n">
-        <v>20750.35839243498</v>
+        <v>20750.35839243502</v>
       </c>
       <c r="O6" t="n">
-        <v>20750.35839243492</v>
+        <v>20750.35839243514</v>
       </c>
       <c r="P6" t="n">
-        <v>20750.35839243488</v>
+        <v>20750.35839243497</v>
       </c>
     </row>
   </sheetData>
@@ -26707,22 +26707,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203974</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1078.694448491203</v>
+        <v>1078.694448491202</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.8207389145293</v>
+        <v>817.8207389145283</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26820,10 +26820,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1078.694448491203</v>
+        <v>1078.694448491202</v>
       </c>
       <c r="C3" t="n">
-        <v>11.08225210209548</v>
+        <v>11.08225210209616</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.8207389145293</v>
+        <v>817.8207389145283</v>
       </c>
       <c r="C4" t="n">
-        <v>13.58071648776354</v>
+        <v>13.58071648776433</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>817.8207389145293</v>
+        <v>817.8207389145283</v>
       </c>
       <c r="K4" t="n">
-        <v>13.58071648776331</v>
+        <v>13.58071648776433</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>817.8207389145293</v>
+        <v>817.8207389145283</v>
       </c>
       <c r="K4" t="n">
-        <v>13.58071648776354</v>
+        <v>13.58071648776433</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>284.7488706672438</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>348.8540191953296</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,22 +27777,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>67.8849611454233</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,19 +27822,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>60.32475882319241</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>253.5958860672813</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>50.56200120609211</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>70.66335656800746</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,10 +28068,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>118.0650580283972</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-3.316095221735781e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-4.452963598951942e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.336460094436993</v>
+        <v>4.33646009443699</v>
       </c>
       <c r="H2" t="n">
-        <v>44.41077194215286</v>
+        <v>44.41077194215283</v>
       </c>
       <c r="I2" t="n">
-        <v>167.1813777907823</v>
+        <v>167.1813777907822</v>
       </c>
       <c r="J2" t="n">
-        <v>368.0516299402221</v>
+        <v>368.0516299402217</v>
       </c>
       <c r="K2" t="n">
-        <v>551.6139857377401</v>
+        <v>551.6139857377397</v>
       </c>
       <c r="L2" t="n">
-        <v>684.3259263528663</v>
+        <v>684.3259263528657</v>
       </c>
       <c r="M2" t="n">
-        <v>761.4444485573102</v>
+        <v>761.4444485573096</v>
       </c>
       <c r="N2" t="n">
-        <v>773.7654158006294</v>
+        <v>773.7654158006287</v>
       </c>
       <c r="O2" t="n">
-        <v>730.6447407365715</v>
+        <v>730.6447407365708</v>
       </c>
       <c r="P2" t="n">
-        <v>623.5883821551581</v>
+        <v>623.5883821551575</v>
       </c>
       <c r="Q2" t="n">
-        <v>468.2889050231332</v>
+        <v>468.2889050231328</v>
       </c>
       <c r="R2" t="n">
-        <v>272.400161407178</v>
+        <v>272.4001614071778</v>
       </c>
       <c r="S2" t="n">
-        <v>98.81708440198308</v>
+        <v>98.817084401983</v>
       </c>
       <c r="T2" t="n">
-        <v>18.98285406339795</v>
+        <v>18.98285406339793</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3469168075549593</v>
+        <v>0.3469168075549591</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.320210700528248</v>
+        <v>2.320210700528246</v>
       </c>
       <c r="H3" t="n">
-        <v>22.4083507129965</v>
+        <v>22.40835071299648</v>
       </c>
       <c r="I3" t="n">
-        <v>79.88444736467871</v>
+        <v>79.88444736467865</v>
       </c>
       <c r="J3" t="n">
-        <v>219.2090293863114</v>
+        <v>219.2090293863112</v>
       </c>
       <c r="K3" t="n">
-        <v>374.6631463217039</v>
+        <v>374.6631463217036</v>
       </c>
       <c r="L3" t="n">
-        <v>503.7808365335566</v>
+        <v>503.7808365335562</v>
       </c>
       <c r="M3" t="n">
-        <v>587.8884744277054</v>
+        <v>587.888474427705</v>
       </c>
       <c r="N3" t="n">
-        <v>603.448133029055</v>
+        <v>603.4481330290546</v>
       </c>
       <c r="O3" t="n">
-        <v>552.0371485594554</v>
+        <v>552.037148559455</v>
       </c>
       <c r="P3" t="n">
-        <v>443.0584801736792</v>
+        <v>443.0584801736788</v>
       </c>
       <c r="Q3" t="n">
-        <v>296.1728606498865</v>
+        <v>296.1728606498863</v>
       </c>
       <c r="R3" t="n">
-        <v>144.0565906871837</v>
+        <v>144.0565906871836</v>
       </c>
       <c r="S3" t="n">
-        <v>43.09689612604001</v>
+        <v>43.09689612603997</v>
       </c>
       <c r="T3" t="n">
-        <v>9.352077341164293</v>
+        <v>9.352077341164286</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1526454408242269</v>
+        <v>0.1526454408242268</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.945186710393972</v>
+        <v>1.94518671039397</v>
       </c>
       <c r="H4" t="n">
-        <v>17.29447820695733</v>
+        <v>17.29447820695732</v>
       </c>
       <c r="I4" t="n">
-        <v>58.49706943621147</v>
+        <v>58.49706943621142</v>
       </c>
       <c r="J4" t="n">
-        <v>137.5247004248538</v>
+        <v>137.5247004248537</v>
       </c>
       <c r="K4" t="n">
-        <v>225.9953287166814</v>
+        <v>225.9953287166813</v>
       </c>
       <c r="L4" t="n">
-        <v>289.1962132889366</v>
+        <v>289.1962132889363</v>
       </c>
       <c r="M4" t="n">
-        <v>304.9168586120296</v>
+        <v>304.9168586120293</v>
       </c>
       <c r="N4" t="n">
-        <v>297.666617236925</v>
+        <v>297.6666172369248</v>
       </c>
       <c r="O4" t="n">
-        <v>274.9432997564135</v>
+        <v>274.9432997564133</v>
       </c>
       <c r="P4" t="n">
-        <v>235.2614908643763</v>
+        <v>235.2614908643761</v>
       </c>
       <c r="Q4" t="n">
-        <v>162.8828617221716</v>
+        <v>162.8828617221715</v>
       </c>
       <c r="R4" t="n">
-        <v>87.46266790553258</v>
+        <v>87.4626679055325</v>
       </c>
       <c r="S4" t="n">
-        <v>33.89929930750221</v>
+        <v>33.89929930750218</v>
       </c>
       <c r="T4" t="n">
-        <v>8.311252308046969</v>
+        <v>8.311252308046962</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1061010932942168</v>
+        <v>0.1061010932942167</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31850,19 +31850,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32078,28 +32078,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>266.392684868584</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>414.6448185524877</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>288.8958573929172</v>
+        <v>263.7590256391492</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,28 +32786,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>467.7715423565662</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>198.5607970756955</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -32959,7 +32959,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
         <v>790.8204499236507</v>
@@ -33020,31 +33020,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>754.0002396832328</v>
       </c>
       <c r="O27" t="n">
-        <v>567.7870775946151</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33187,7 +33187,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M29" t="n">
         <v>965.6463440175675</v>
@@ -33260,7 +33260,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33269,13 +33269,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>235.5705495535876</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>153.972377511982</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>463.4318227833006</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,13 +33962,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33977,34 +33977,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>579.5299594447137</v>
+        <v>577.7447198439377</v>
       </c>
       <c r="M39" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043711</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>705.9257335045839</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P42" t="n">
-        <v>295.9743940159484</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34445,16 +34445,16 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M45" t="n">
-        <v>547.6926421044561</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>187.0057254135358</v>
+        <v>187.0057254135355</v>
       </c>
       <c r="K2" t="n">
-        <v>331.5241346927596</v>
+        <v>331.5241346927591</v>
       </c>
       <c r="L2" t="n">
-        <v>448.5595113828791</v>
+        <v>448.5595113828785</v>
       </c>
       <c r="M2" t="n">
-        <v>531.0982153300375</v>
+        <v>531.0982153300369</v>
       </c>
       <c r="N2" t="n">
-        <v>544.3523522040384</v>
+        <v>544.3523522040377</v>
       </c>
       <c r="O2" t="n">
-        <v>500.5465293148848</v>
+        <v>500.5465293148841</v>
       </c>
       <c r="P2" t="n">
-        <v>392.3553863998886</v>
+        <v>392.355386399888</v>
       </c>
       <c r="Q2" t="n">
-        <v>245.9832151486837</v>
+        <v>245.9832151486833</v>
       </c>
       <c r="R2" t="n">
-        <v>56.81462359304589</v>
+        <v>56.81462359304567</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>92.37140271964466</v>
+        <v>92.37140271964449</v>
       </c>
       <c r="K3" t="n">
-        <v>236.821707347345</v>
+        <v>264.7752623539671</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2264567536824</v>
+        <v>365.226456753682</v>
       </c>
       <c r="M3" t="n">
-        <v>445.7544405056871</v>
+        <v>445.7544405056867</v>
       </c>
       <c r="N3" t="n">
-        <v>472.1064209457218</v>
+        <v>472.1064209457213</v>
       </c>
       <c r="O3" t="n">
-        <v>409.440904115011</v>
+        <v>409.4409041150105</v>
       </c>
       <c r="P3" t="n">
-        <v>337.0376277659677</v>
+        <v>309.0840727593485</v>
       </c>
       <c r="Q3" t="n">
-        <v>156.191086563865</v>
+        <v>156.1910865638648</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.16552030818104</v>
+        <v>44.16552030818093</v>
       </c>
       <c r="K4" t="n">
-        <v>203.7258368907986</v>
+        <v>203.7258368907984</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7862385492527</v>
+        <v>316.7862385492525</v>
       </c>
       <c r="M4" t="n">
-        <v>344.5007355738702</v>
+        <v>344.5007355738699</v>
       </c>
       <c r="N4" t="n">
-        <v>341.7987896161536</v>
+        <v>341.7987896161534</v>
       </c>
       <c r="O4" t="n">
-        <v>299.5284276704532</v>
+        <v>299.528427670453</v>
       </c>
       <c r="P4" t="n">
-        <v>232.5400501292698</v>
+        <v>232.5400501292696</v>
       </c>
       <c r="Q4" t="n">
-        <v>76.72081847047723</v>
+        <v>76.72081847047708</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35498,19 +35498,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>128.551245894225</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>272.5107846304694</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>157.5541453095838</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36434,28 +36434,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>325.6375084345479</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>55.96455263125101</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36534,7 +36534,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36607,7 +36607,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>622.6585275998996</v>
       </c>
       <c r="O27" t="n">
-        <v>425.1908331501707</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295339</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36765,7 +36765,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36835,7 +36835,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36908,7 +36908,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36917,13 +36917,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>92.97430510914316</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295339</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -37002,7 +37002,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J36" t="n">
-        <v>27.13475084531533</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>320.8355783388562</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K37" t="n">
         <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>440.9755796648395</v>
+        <v>439.1903400640634</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>574.5840214212507</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P42" t="n">
-        <v>161.9999866016181</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819473</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38093,16 +38093,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M45" t="n">
-        <v>405.5586081824378</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980851</v>
